--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema4c</t>
+  </si>
+  <si>
+    <t>Plxnb2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema4c</t>
-  </si>
-  <si>
-    <t>Plxnb2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.7022095</v>
+        <v>16.3130105</v>
       </c>
       <c r="H2">
-        <v>31.404419</v>
+        <v>32.626021</v>
       </c>
       <c r="I2">
-        <v>0.3956795113812137</v>
+        <v>0.5121057862391521</v>
       </c>
       <c r="J2">
-        <v>0.3301485836983984</v>
+        <v>0.482902379080847</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N2">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O2">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P2">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q2">
-        <v>235.6494723190808</v>
+        <v>184.3074350054582</v>
       </c>
       <c r="R2">
-        <v>942.597889276323</v>
+        <v>737.229740021833</v>
       </c>
       <c r="S2">
-        <v>0.02770933053407667</v>
+        <v>0.02964633606921774</v>
       </c>
       <c r="T2">
-        <v>0.01646079152681915</v>
+        <v>0.01997366593751643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.7022095</v>
+        <v>16.3130105</v>
       </c>
       <c r="H3">
-        <v>31.404419</v>
+        <v>32.626021</v>
       </c>
       <c r="I3">
-        <v>0.3956795113812137</v>
+        <v>0.5121057862391521</v>
       </c>
       <c r="J3">
-        <v>0.3301485836983984</v>
+        <v>0.482902379080847</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P3">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q3">
-        <v>480.143952142883</v>
+        <v>498.821094752197</v>
       </c>
       <c r="R3">
-        <v>2880.863712857298</v>
+        <v>2992.926568513182</v>
       </c>
       <c r="S3">
-        <v>0.05645871956738414</v>
+        <v>0.08023668612718085</v>
       </c>
       <c r="T3">
-        <v>0.05030914829538791</v>
+        <v>0.0810869559511114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.7022095</v>
+        <v>16.3130105</v>
       </c>
       <c r="H4">
-        <v>31.404419</v>
+        <v>32.626021</v>
       </c>
       <c r="I4">
-        <v>0.3956795113812137</v>
+        <v>0.5121057862391521</v>
       </c>
       <c r="J4">
-        <v>0.3301485836983984</v>
+        <v>0.482902379080847</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N4">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O4">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P4">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q4">
-        <v>979.1168110183837</v>
+        <v>913.1299904637727</v>
       </c>
       <c r="R4">
-        <v>5874.700866110302</v>
+        <v>5478.779942782637</v>
       </c>
       <c r="S4">
-        <v>0.1151314750717678</v>
+        <v>0.1468793625789914</v>
       </c>
       <c r="T4">
-        <v>0.1025911763007537</v>
+        <v>0.1484358462249027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.7022095</v>
+        <v>16.3130105</v>
       </c>
       <c r="H5">
-        <v>31.404419</v>
+        <v>32.626021</v>
       </c>
       <c r="I5">
-        <v>0.3956795113812137</v>
+        <v>0.5121057862391521</v>
       </c>
       <c r="J5">
-        <v>0.3301485836983984</v>
+        <v>0.482902379080847</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N5">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O5">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P5">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q5">
-        <v>406.6405983388897</v>
+        <v>454.7944571995988</v>
       </c>
       <c r="R5">
-        <v>1626.562393355559</v>
+        <v>1819.177828798395</v>
       </c>
       <c r="S5">
-        <v>0.04781567570280804</v>
+        <v>0.07315488558645217</v>
       </c>
       <c r="T5">
-        <v>0.02840501211279596</v>
+        <v>0.04928673961563124</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.7022095</v>
+        <v>16.3130105</v>
       </c>
       <c r="H6">
-        <v>31.404419</v>
+        <v>32.626021</v>
       </c>
       <c r="I6">
-        <v>0.3956795113812137</v>
+        <v>0.5121057862391521</v>
       </c>
       <c r="J6">
-        <v>0.3301485836983984</v>
+        <v>0.482902379080847</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N6">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O6">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P6">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q6">
-        <v>140.4026514001972</v>
+        <v>192.4189571290045</v>
       </c>
       <c r="R6">
-        <v>842.4159084011831</v>
+        <v>1154.513742774027</v>
       </c>
       <c r="S6">
-        <v>0.01650953612253768</v>
+        <v>0.03095109575457946</v>
       </c>
       <c r="T6">
-        <v>0.01471129185077433</v>
+        <v>0.03127908515703298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.7022095</v>
+        <v>16.3130105</v>
       </c>
       <c r="H7">
-        <v>31.404419</v>
+        <v>32.626021</v>
       </c>
       <c r="I7">
-        <v>0.3956795113812137</v>
+        <v>0.5121057862391521</v>
       </c>
       <c r="J7">
-        <v>0.3301485836983984</v>
+        <v>0.482902379080847</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N7">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O7">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P7">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q7">
-        <v>1123.038243822414</v>
+        <v>940.2234702657084</v>
       </c>
       <c r="R7">
-        <v>6738.229462934481</v>
+        <v>5641.340821594251</v>
       </c>
       <c r="S7">
-        <v>0.1320547743826394</v>
+        <v>0.1512374201227305</v>
       </c>
       <c r="T7">
-        <v>0.1176711636118674</v>
+        <v>0.1528400861946523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>10.542325</v>
       </c>
       <c r="I8">
-        <v>0.08855191164491752</v>
+        <v>0.1103165605742253</v>
       </c>
       <c r="J8">
-        <v>0.1108294239622207</v>
+        <v>0.156038452361184</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N8">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O8">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P8">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q8">
-        <v>52.7376592715875</v>
+        <v>39.70305133120416</v>
       </c>
       <c r="R8">
-        <v>316.425955629525</v>
+        <v>238.218307987225</v>
       </c>
       <c r="S8">
-        <v>0.006201266728792951</v>
+        <v>0.006386340316132244</v>
       </c>
       <c r="T8">
-        <v>0.005525815141906421</v>
+        <v>0.006454016496670801</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>10.542325</v>
       </c>
       <c r="I9">
-        <v>0.08855191164491752</v>
+        <v>0.1103165605742253</v>
       </c>
       <c r="J9">
-        <v>0.1108294239622207</v>
+        <v>0.156038452361184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P9">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q9">
         <v>107.4548052250167</v>
@@ -1013,10 +1013,10 @@
         <v>967.0932470251499</v>
       </c>
       <c r="S9">
-        <v>0.01263529549271867</v>
+        <v>0.01728438827147063</v>
       </c>
       <c r="T9">
-        <v>0.01688855927578776</v>
+        <v>0.02620132693770106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>10.542325</v>
       </c>
       <c r="I10">
-        <v>0.08855191164491752</v>
+        <v>0.1103165605742253</v>
       </c>
       <c r="J10">
-        <v>0.1108294239622207</v>
+        <v>0.156038452361184</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N10">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O10">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P10">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q10">
-        <v>219.1234644338722</v>
+        <v>196.7042017722805</v>
       </c>
       <c r="R10">
-        <v>1972.11117990485</v>
+        <v>1770.337815950525</v>
       </c>
       <c r="S10">
-        <v>0.02576608572052602</v>
+        <v>0.03164038863540987</v>
       </c>
       <c r="T10">
-        <v>0.03443940557202613</v>
+        <v>0.04796352373318669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>10.542325</v>
       </c>
       <c r="I11">
-        <v>0.08855191164491752</v>
+        <v>0.1103165605742253</v>
       </c>
       <c r="J11">
-        <v>0.1108294239622207</v>
+        <v>0.156038452361184</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N11">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O11">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P11">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q11">
-        <v>91.0049706886375</v>
+        <v>97.97069596681249</v>
       </c>
       <c r="R11">
-        <v>546.029824131825</v>
+        <v>587.824175800875</v>
       </c>
       <c r="S11">
-        <v>0.01070100767991931</v>
+        <v>0.01575884433246691</v>
       </c>
       <c r="T11">
-        <v>0.009535437331989223</v>
+        <v>0.01592584113209391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>10.542325</v>
       </c>
       <c r="I12">
-        <v>0.08855191164491752</v>
+        <v>0.1103165605742253</v>
       </c>
       <c r="J12">
-        <v>0.1108294239622207</v>
+        <v>0.156038452361184</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N12">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O12">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P12">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q12">
-        <v>31.42170070444722</v>
+        <v>41.45041534414167</v>
       </c>
       <c r="R12">
-        <v>282.795306340025</v>
+        <v>373.053738097275</v>
       </c>
       <c r="S12">
-        <v>0.003694785658520053</v>
+        <v>0.006667408417162829</v>
       </c>
       <c r="T12">
-        <v>0.004938515813991478</v>
+        <v>0.01010709462327992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>10.542325</v>
       </c>
       <c r="I13">
-        <v>0.08855191164491752</v>
+        <v>0.1103165605742253</v>
       </c>
       <c r="J13">
-        <v>0.1108294239622207</v>
+        <v>0.156038452361184</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N13">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O13">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P13">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q13">
-        <v>251.3326580739083</v>
+        <v>202.5406121118056</v>
       </c>
       <c r="R13">
-        <v>2261.993922665175</v>
+        <v>1822.86550900625</v>
       </c>
       <c r="S13">
-        <v>0.02955347036444052</v>
+        <v>0.03257919060158281</v>
       </c>
       <c r="T13">
-        <v>0.03950169082651967</v>
+        <v>0.04938664943825169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5630473333333333</v>
+        <v>0.1045493333333333</v>
       </c>
       <c r="H14">
-        <v>1.689142</v>
+        <v>0.313648</v>
       </c>
       <c r="I14">
-        <v>0.01418821304975129</v>
+        <v>0.003282062409476526</v>
       </c>
       <c r="J14">
-        <v>0.01775762318562493</v>
+        <v>0.004642348676044484</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N14">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O14">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P14">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q14">
-        <v>8.449881336169</v>
+        <v>1.181217866450667</v>
       </c>
       <c r="R14">
-        <v>50.69928801701401</v>
+        <v>7.087307198704001</v>
       </c>
       <c r="S14">
-        <v>0.0009935967715666879</v>
+        <v>0.0001900020031135681</v>
       </c>
       <c r="T14">
-        <v>0.0008853726706803382</v>
+        <v>0.0001920154582739389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5630473333333333</v>
+        <v>0.1045493333333333</v>
       </c>
       <c r="H15">
-        <v>1.689142</v>
+        <v>0.313648</v>
       </c>
       <c r="I15">
-        <v>0.01418821304975129</v>
+        <v>0.003282062409476526</v>
       </c>
       <c r="J15">
-        <v>0.01775762318562493</v>
+        <v>0.004642348676044484</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P15">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q15">
-        <v>17.21692554606267</v>
+        <v>3.196921433290667</v>
       </c>
       <c r="R15">
-        <v>154.952329914564</v>
+        <v>28.772292899616</v>
       </c>
       <c r="S15">
-        <v>0.002024487795544323</v>
+        <v>0.0005142332277339412</v>
       </c>
       <c r="T15">
-        <v>0.002705966168963932</v>
+        <v>0.0007795238518406579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5630473333333333</v>
+        <v>0.1045493333333333</v>
       </c>
       <c r="H16">
-        <v>1.689142</v>
+        <v>0.313648</v>
       </c>
       <c r="I16">
-        <v>0.01418821304975129</v>
+        <v>0.003282062409476526</v>
       </c>
       <c r="J16">
-        <v>0.01775762318562493</v>
+        <v>0.004642348676044484</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N16">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O16">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P16">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q16">
-        <v>35.10901503802622</v>
+        <v>5.852208073406223</v>
       </c>
       <c r="R16">
-        <v>315.981135342236</v>
+        <v>52.669872660656</v>
       </c>
       <c r="S16">
-        <v>0.004128366139930307</v>
+        <v>0.0009413430732517767</v>
       </c>
       <c r="T16">
-        <v>0.005518047148683366</v>
+        <v>0.00142697775792973</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.5630473333333333</v>
+        <v>0.1045493333333333</v>
       </c>
       <c r="H17">
-        <v>1.689142</v>
+        <v>0.313648</v>
       </c>
       <c r="I17">
-        <v>0.01418821304975129</v>
+        <v>0.003282062409476526</v>
       </c>
       <c r="J17">
-        <v>0.01775762318562493</v>
+        <v>0.004642348676044484</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N17">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O17">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P17">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q17">
-        <v>14.581253964277</v>
+        <v>2.91475673996</v>
       </c>
       <c r="R17">
-        <v>87.48752378566201</v>
+        <v>17.48854043976</v>
       </c>
       <c r="S17">
-        <v>0.00171456690193807</v>
+        <v>0.0004688462940755081</v>
       </c>
       <c r="T17">
-        <v>0.001527813616619763</v>
+        <v>0.0004738146679597709</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.5630473333333333</v>
+        <v>0.1045493333333333</v>
       </c>
       <c r="H18">
-        <v>1.689142</v>
+        <v>0.313648</v>
       </c>
       <c r="I18">
-        <v>0.01418821304975129</v>
+        <v>0.003282062409476526</v>
       </c>
       <c r="J18">
-        <v>0.01775762318562493</v>
+        <v>0.004642348676044484</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N18">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O18">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P18">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q18">
-        <v>5.034535965388223</v>
+        <v>1.233204238330667</v>
       </c>
       <c r="R18">
-        <v>45.310823688494</v>
+        <v>11.098838144976</v>
       </c>
       <c r="S18">
-        <v>0.0005919963230884914</v>
+        <v>0.0001983641478731008</v>
       </c>
       <c r="T18">
-        <v>0.0007912727485708508</v>
+        <v>0.0003006993252818994</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.5630473333333333</v>
+        <v>0.1045493333333333</v>
       </c>
       <c r="H19">
-        <v>1.689142</v>
+        <v>0.313648</v>
       </c>
       <c r="I19">
-        <v>0.01418821304975129</v>
+        <v>0.003282062409476526</v>
       </c>
       <c r="J19">
-        <v>0.01775762318562493</v>
+        <v>0.004642348676044484</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N19">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O19">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P19">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q19">
-        <v>40.26972690789533</v>
+        <v>6.025848938222223</v>
       </c>
       <c r="R19">
-        <v>362.4275421710581</v>
+        <v>54.23264044400001</v>
       </c>
       <c r="S19">
-        <v>0.004735199117683413</v>
+        <v>0.0009692736634286315</v>
       </c>
       <c r="T19">
-        <v>0.006329150832106683</v>
+        <v>0.001469317614758487</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.228197</v>
+        <v>11.6889375</v>
       </c>
       <c r="H20">
-        <v>16.456394</v>
+        <v>23.377875</v>
       </c>
       <c r="I20">
-        <v>0.2073420921118374</v>
+        <v>0.3669446868030772</v>
       </c>
       <c r="J20">
-        <v>0.1730028876472073</v>
+        <v>0.3460192542435578</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N20">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O20">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P20">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q20">
-        <v>123.4839135974745</v>
+        <v>132.0637958618438</v>
       </c>
       <c r="R20">
-        <v>493.935654389898</v>
+        <v>528.2551834473751</v>
       </c>
       <c r="S20">
-        <v>0.01452011134945678</v>
+        <v>0.02124280919313341</v>
       </c>
       <c r="T20">
-        <v>0.008625705538994289</v>
+        <v>0.01431194645461109</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.228197</v>
+        <v>11.6889375</v>
       </c>
       <c r="H21">
-        <v>16.456394</v>
+        <v>23.377875</v>
       </c>
       <c r="I21">
-        <v>0.2073420921118374</v>
+        <v>0.3669446868030772</v>
       </c>
       <c r="J21">
-        <v>0.1730028876472073</v>
+        <v>0.3460192542435578</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P21">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q21">
-        <v>251.602745880458</v>
+        <v>357.425663413875</v>
       </c>
       <c r="R21">
-        <v>1509.616475282748</v>
+        <v>2144.55398048325</v>
       </c>
       <c r="S21">
-        <v>0.02958522919772479</v>
+        <v>0.05749285880418787</v>
       </c>
       <c r="T21">
-        <v>0.02636276016293541</v>
+        <v>0.05810211181913935</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.228197</v>
+        <v>11.6889375</v>
       </c>
       <c r="H22">
-        <v>16.456394</v>
+        <v>23.377875</v>
       </c>
       <c r="I22">
-        <v>0.2073420921118374</v>
+        <v>0.3669446868030772</v>
       </c>
       <c r="J22">
-        <v>0.1730028876472073</v>
+        <v>0.3460192542435578</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N22">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O22">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P22">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q22">
-        <v>513.0721257458086</v>
+        <v>654.2948886048125</v>
       </c>
       <c r="R22">
-        <v>3078.432754474852</v>
+        <v>3925.769331628875</v>
       </c>
       <c r="S22">
-        <v>0.060330646957111</v>
+        <v>0.1052450551187759</v>
       </c>
       <c r="T22">
-        <v>0.05375933935057565</v>
+        <v>0.1063603391466277</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.228197</v>
+        <v>11.6889375</v>
       </c>
       <c r="H23">
-        <v>16.456394</v>
+        <v>23.377875</v>
       </c>
       <c r="I23">
-        <v>0.2073420921118374</v>
+        <v>0.3669446868030772</v>
       </c>
       <c r="J23">
-        <v>0.1730028876472073</v>
+        <v>0.3460192542435578</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N23">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O23">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P23">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q23">
-        <v>213.0858686690085</v>
+        <v>325.8787815745313</v>
       </c>
       <c r="R23">
-        <v>852.3434746760339</v>
+        <v>1303.515126298125</v>
       </c>
       <c r="S23">
-        <v>0.02505614253655309</v>
+        <v>0.052418459820135</v>
       </c>
       <c r="T23">
-        <v>0.01488465909536307</v>
+        <v>0.03531595954933565</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>2</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.228197</v>
+        <v>11.6889375</v>
       </c>
       <c r="H24">
-        <v>16.456394</v>
+        <v>23.377875</v>
       </c>
       <c r="I24">
-        <v>0.2073420921118374</v>
+        <v>0.3669446868030772</v>
       </c>
       <c r="J24">
-        <v>0.1730028876472073</v>
+        <v>0.3460192542435578</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N24">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O24">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P24">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q24">
-        <v>73.57312835770966</v>
+        <v>137.8760323666875</v>
       </c>
       <c r="R24">
-        <v>441.438770146258</v>
+        <v>827.2561942001252</v>
       </c>
       <c r="S24">
-        <v>0.008651248449771106</v>
+        <v>0.02217772273436559</v>
       </c>
       <c r="T24">
-        <v>0.007708941055248674</v>
+        <v>0.02241274052129962</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.228197</v>
+        <v>11.6889375</v>
       </c>
       <c r="H25">
-        <v>16.456394</v>
+        <v>23.377875</v>
       </c>
       <c r="I25">
-        <v>0.2073420921118374</v>
+        <v>0.3669446868030772</v>
       </c>
       <c r="J25">
-        <v>0.1730028876472073</v>
+        <v>0.3460192542435578</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N25">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O25">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P25">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q25">
-        <v>588.489149167501</v>
+        <v>673.7084721406251</v>
       </c>
       <c r="R25">
-        <v>3530.934895005006</v>
+        <v>4042.250832843751</v>
       </c>
       <c r="S25">
-        <v>0.06919871362122067</v>
+        <v>0.1083677811324795</v>
       </c>
       <c r="T25">
-        <v>0.06166148244409021</v>
+        <v>0.1095161567525445</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.625307</v>
+        <v>0.2341613333333333</v>
       </c>
       <c r="H26">
-        <v>31.875921</v>
+        <v>0.702484</v>
       </c>
       <c r="I26">
-        <v>0.2677467958910744</v>
+        <v>0.007350903974068726</v>
       </c>
       <c r="J26">
-        <v>0.3351053930414072</v>
+        <v>0.01039756563836668</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.0074085</v>
+        <v>11.2981865</v>
       </c>
       <c r="N26">
-        <v>30.014817</v>
+        <v>22.596373</v>
       </c>
       <c r="O26">
-        <v>0.07002973299615803</v>
+        <v>0.05789103905061711</v>
       </c>
       <c r="P26">
-        <v>0.04985873736734435</v>
+        <v>0.04136170539381929</v>
       </c>
       <c r="Q26">
-        <v>159.4583225869095</v>
+        <v>2.645598415088667</v>
       </c>
       <c r="R26">
-        <v>956.7499355214571</v>
+        <v>15.873590490532</v>
       </c>
       <c r="S26">
-        <v>0.01875023662682876</v>
+        <v>0.0004255514690201492</v>
       </c>
       <c r="T26">
-        <v>0.01670793178203222</v>
+        <v>0.0004300610467470212</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.625307</v>
+        <v>0.2341613333333333</v>
       </c>
       <c r="H27">
-        <v>31.875921</v>
+        <v>0.702484</v>
       </c>
       <c r="I27">
-        <v>0.2677467958910744</v>
+        <v>0.007350903974068726</v>
       </c>
       <c r="J27">
-        <v>0.3351053930414072</v>
+        <v>0.01039756563836668</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>91.734342</v>
       </c>
       <c r="O27">
-        <v>0.1426880036580654</v>
+        <v>0.1566799053696115</v>
       </c>
       <c r="P27">
-        <v>0.1523833533732405</v>
+        <v>0.1679158344704198</v>
       </c>
       <c r="Q27">
-        <v>324.901848730998</v>
+        <v>7.160211945058666</v>
       </c>
       <c r="R27">
-        <v>2924.116638578982</v>
+        <v>64.44190750552799</v>
       </c>
       <c r="S27">
-        <v>0.03820425579154092</v>
+        <v>0.001151738939038189</v>
       </c>
       <c r="T27">
-        <v>0.0510644835251074</v>
+        <v>0.001745915910627304</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.625307</v>
+        <v>0.2341613333333333</v>
       </c>
       <c r="H28">
-        <v>31.875921</v>
+        <v>0.702484</v>
       </c>
       <c r="I28">
-        <v>0.2677467958910744</v>
+        <v>0.007350903974068726</v>
       </c>
       <c r="J28">
-        <v>0.3351053930414072</v>
+        <v>0.01039756563836668</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>62.35535266666667</v>
+        <v>55.97556566666666</v>
       </c>
       <c r="N28">
-        <v>187.066058</v>
+        <v>167.926697</v>
       </c>
       <c r="O28">
-        <v>0.2909715357003801</v>
+        <v>0.286814495219156</v>
       </c>
       <c r="P28">
-        <v>0.3107424395146705</v>
+        <v>0.3073827188580732</v>
       </c>
       <c r="Q28">
-        <v>662.5447651766021</v>
+        <v>13.10731309059422</v>
       </c>
       <c r="R28">
-        <v>5962.902886589418</v>
+        <v>117.965817815348</v>
       </c>
       <c r="S28">
-        <v>0.07790669637928214</v>
+        <v>0.00210834581272701</v>
       </c>
       <c r="T28">
-        <v>0.1041314673282094</v>
+        <v>0.003196031995426428</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.625307</v>
+        <v>0.2341613333333333</v>
       </c>
       <c r="H29">
-        <v>31.875921</v>
+        <v>0.702484</v>
       </c>
       <c r="I29">
-        <v>0.2677467958910744</v>
+        <v>0.007350903974068726</v>
       </c>
       <c r="J29">
-        <v>0.3351053930414072</v>
+        <v>0.01039756563836668</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.8970305</v>
+        <v>27.8792475</v>
       </c>
       <c r="N29">
-        <v>51.794061</v>
+        <v>55.758495</v>
       </c>
       <c r="O29">
-        <v>0.1208444570099069</v>
+        <v>0.142851120905494</v>
       </c>
       <c r="P29">
-        <v>0.0860370557843885</v>
+        <v>0.102063567608516</v>
       </c>
       <c r="Q29">
-        <v>275.1638994508635</v>
+        <v>6.52824176693</v>
       </c>
       <c r="R29">
-        <v>1650.983396705181</v>
+        <v>39.16945060158</v>
       </c>
       <c r="S29">
-        <v>0.03235571616559925</v>
+        <v>0.001050084872364368</v>
       </c>
       <c r="T29">
-        <v>0.02883148139475298</v>
+        <v>0.00106121264349542</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,14 +2264,14 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
         <v>3</v>
       </c>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.625307</v>
+        <v>0.2341613333333333</v>
       </c>
       <c r="H30">
-        <v>31.875921</v>
+        <v>0.702484</v>
       </c>
       <c r="I30">
-        <v>0.2677467958910744</v>
+        <v>0.007350903974068726</v>
       </c>
       <c r="J30">
-        <v>0.3351053930414072</v>
+        <v>0.01039756563836668</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.941585666666667</v>
+        <v>11.795429</v>
       </c>
       <c r="N30">
-        <v>26.824757</v>
+        <v>35.386287</v>
       </c>
       <c r="O30">
-        <v>0.04172451604811986</v>
+        <v>0.06043887139389862</v>
       </c>
       <c r="P30">
-        <v>0.04455960914923559</v>
+        <v>0.0647731022087101</v>
       </c>
       <c r="Q30">
-        <v>95.007092775133</v>
+        <v>2.762033381878667</v>
       </c>
       <c r="R30">
-        <v>855.0638349761971</v>
+        <v>24.858300436908</v>
       </c>
       <c r="S30">
-        <v>0.01117160548198981</v>
+        <v>0.0004442803399176381</v>
       </c>
       <c r="T30">
-        <v>0.01493216533772608</v>
+        <v>0.0006734825818156971</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.625307</v>
+        <v>0.2341613333333333</v>
       </c>
       <c r="H31">
-        <v>31.875921</v>
+        <v>0.702484</v>
       </c>
       <c r="I31">
-        <v>0.2677467958910744</v>
+        <v>0.007350903974068726</v>
       </c>
       <c r="J31">
-        <v>0.3351053930414072</v>
+        <v>0.01039756563836668</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.521033</v>
+        <v>57.63641666666667</v>
       </c>
       <c r="N31">
-        <v>214.563099</v>
+        <v>172.90925</v>
       </c>
       <c r="O31">
-        <v>0.3337417545873698</v>
+        <v>0.2953245680612229</v>
       </c>
       <c r="P31">
-        <v>0.3564188048111206</v>
+        <v>0.3165030714604617</v>
       </c>
       <c r="Q31">
-        <v>759.9329325821311</v>
+        <v>13.49622017522222</v>
       </c>
       <c r="R31">
-        <v>6839.39639323918</v>
+        <v>121.465981577</v>
       </c>
       <c r="S31">
-        <v>0.08935828544583356</v>
+        <v>0.002170902541001373</v>
       </c>
       <c r="T31">
-        <v>0.1194378636735792</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1.051292</v>
-      </c>
-      <c r="H32">
-        <v>3.153876</v>
-      </c>
-      <c r="I32">
-        <v>0.02649147592120579</v>
-      </c>
-      <c r="J32">
-        <v>0.03315608846514148</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>15.0074085</v>
-      </c>
-      <c r="N32">
-        <v>30.014817</v>
-      </c>
-      <c r="O32">
-        <v>0.07002973299615803</v>
-      </c>
-      <c r="P32">
-        <v>0.04985873736734435</v>
-      </c>
-      <c r="Q32">
-        <v>15.777168496782</v>
-      </c>
-      <c r="R32">
-        <v>94.66301098069199</v>
-      </c>
-      <c r="S32">
-        <v>0.001855190985436191</v>
-      </c>
-      <c r="T32">
-        <v>0.001653120706911925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1.051292</v>
-      </c>
-      <c r="H33">
-        <v>3.153876</v>
-      </c>
-      <c r="I33">
-        <v>0.02649147592120579</v>
-      </c>
-      <c r="J33">
-        <v>0.03315608846514148</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>30.578114</v>
-      </c>
-      <c r="N33">
-        <v>91.734342</v>
-      </c>
-      <c r="O33">
-        <v>0.1426880036580654</v>
-      </c>
-      <c r="P33">
-        <v>0.1523833533732405</v>
-      </c>
-      <c r="Q33">
-        <v>32.146526623288</v>
-      </c>
-      <c r="R33">
-        <v>289.318739609592</v>
-      </c>
-      <c r="S33">
-        <v>0.003780015813152563</v>
-      </c>
-      <c r="T33">
-        <v>0.005052435945058077</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1.051292</v>
-      </c>
-      <c r="H34">
-        <v>3.153876</v>
-      </c>
-      <c r="I34">
-        <v>0.02649147592120579</v>
-      </c>
-      <c r="J34">
-        <v>0.03315608846514148</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>62.35535266666667</v>
-      </c>
-      <c r="N34">
-        <v>187.066058</v>
-      </c>
-      <c r="O34">
-        <v>0.2909715357003801</v>
-      </c>
-      <c r="P34">
-        <v>0.3107424395146705</v>
-      </c>
-      <c r="Q34">
-        <v>65.55368341564532</v>
-      </c>
-      <c r="R34">
-        <v>589.983150740808</v>
-      </c>
-      <c r="S34">
-        <v>0.007708265431762891</v>
-      </c>
-      <c r="T34">
-        <v>0.01030300381442229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1.051292</v>
-      </c>
-      <c r="H35">
-        <v>3.153876</v>
-      </c>
-      <c r="I35">
-        <v>0.02649147592120579</v>
-      </c>
-      <c r="J35">
-        <v>0.03315608846514148</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>25.8970305</v>
-      </c>
-      <c r="N35">
-        <v>51.794061</v>
-      </c>
-      <c r="O35">
-        <v>0.1208444570099069</v>
-      </c>
-      <c r="P35">
-        <v>0.0860370557843885</v>
-      </c>
-      <c r="Q35">
-        <v>27.225340988406</v>
-      </c>
-      <c r="R35">
-        <v>163.352045930436</v>
-      </c>
-      <c r="S35">
-        <v>0.003201348023089136</v>
-      </c>
-      <c r="T35">
-        <v>0.002852652232867498</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1.051292</v>
-      </c>
-      <c r="H36">
-        <v>3.153876</v>
-      </c>
-      <c r="I36">
-        <v>0.02649147592120579</v>
-      </c>
-      <c r="J36">
-        <v>0.03315608846514148</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>8.941585666666667</v>
-      </c>
-      <c r="N36">
-        <v>26.824757</v>
-      </c>
-      <c r="O36">
-        <v>0.04172451604811986</v>
-      </c>
-      <c r="P36">
-        <v>0.04455960914923559</v>
-      </c>
-      <c r="Q36">
-        <v>9.400217478681332</v>
-      </c>
-      <c r="R36">
-        <v>84.601957308132</v>
-      </c>
-      <c r="S36">
-        <v>0.001105344012212732</v>
-      </c>
-      <c r="T36">
-        <v>0.001477422342924183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1.051292</v>
-      </c>
-      <c r="H37">
-        <v>3.153876</v>
-      </c>
-      <c r="I37">
-        <v>0.02649147592120579</v>
-      </c>
-      <c r="J37">
-        <v>0.03315608846514148</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>71.521033</v>
-      </c>
-      <c r="N37">
-        <v>214.563099</v>
-      </c>
-      <c r="O37">
-        <v>0.3337417545873698</v>
-      </c>
-      <c r="P37">
-        <v>0.3564188048111206</v>
-      </c>
-      <c r="Q37">
-        <v>75.189489824636</v>
-      </c>
-      <c r="R37">
-        <v>676.7054084217241</v>
-      </c>
-      <c r="S37">
-        <v>0.00884131165555228</v>
-      </c>
-      <c r="T37">
-        <v>0.01181745342295751</v>
+        <v>0.003290861460254811</v>
       </c>
     </row>
   </sheetData>
